--- a/tests/samples/admin_fmc.xlsx
+++ b/tests/samples/admin_fmc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC167D7-A5FA-47AA-B4B6-7413B406BF6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919162F-4752-4A38-93CD-F5618F749F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
+    <workbookView xWindow="-26700" yWindow="2205" windowWidth="14400" windowHeight="7365" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Client</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Save folder</t>
   </si>
   <si>
-    <t>Standards</t>
-  </si>
-  <si>
     <t>auto select</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or matrix of correlations</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
     <t>96240….</t>
   </si>
   <si>
@@ -135,24 +129,9 @@
     <t>u_mag /ug</t>
   </si>
   <si>
-    <t>u_density</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Plastic box</t>
-  </si>
-  <si>
-    <t>ADW</t>
-  </si>
-  <si>
-    <t>CNG</t>
-  </si>
-  <si>
-    <t>weight ID</t>
-  </si>
-  <si>
     <t>path to config.xml file containing equipment parameters</t>
   </si>
   <si>
@@ -207,20 +186,178 @@
     <t>tests</t>
   </si>
   <si>
-    <t>MET14A</t>
-  </si>
-  <si>
-    <t>MET14B</t>
-  </si>
-  <si>
     <t>tests\samples\config_fmc.xml</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>B023</t>
+  </si>
+  <si>
+    <t>B024</t>
+  </si>
+  <si>
+    <t>B025</t>
+  </si>
+  <si>
+    <t>B026</t>
+  </si>
+  <si>
+    <t>B027</t>
+  </si>
+  <si>
+    <t>B028</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>Weight ID</t>
+  </si>
+  <si>
+    <r>
+      <t>Density (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Standards file</t>
+  </si>
+  <si>
+    <t>Path to xlsx of standard masses</t>
+  </si>
+  <si>
+    <t>Mettler A</t>
+  </si>
+  <si>
+    <t>Mettler B</t>
+  </si>
+  <si>
+    <t>tests\samples\MASSREF4tests.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t>u_dens (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +400,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -296,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -337,24 +489,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -366,6 +500,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB355D-84BE-43AB-B2BC-CDE069094A48}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,215 +849,223 @@
     <col min="3" max="3" width="41.81640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
     <col min="8" max="8" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="20"/>
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="26"/>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <f>COUNT(B15:B90)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>10000</v>
       </c>
@@ -911,28 +1074,36 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="1">
+        <v>8012.34</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.12871287128712872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>10000</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>8012.34</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.12871287128712872</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
@@ -943,11 +1114,15 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
@@ -957,26 +1132,38 @@
         <v>2000</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>8011.81</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>2000</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="O19" s="27"/>
+      <c r="F19" s="1">
+        <v>8011.81</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O19" s="21"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="1"/>
@@ -992,10 +1179,16 @@
         <v>1000</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>8005.0770000000002</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.158</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
@@ -1005,10 +1198,16 @@
         <v>500</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>8010.1120000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
@@ -1018,25 +1217,37 @@
         <v>200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>8013.7295000000004</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.88600000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>200</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>8013.7295000000004</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.88600000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
@@ -1046,10 +1257,16 @@
         <v>100</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>8010.8329999999996</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
@@ -1059,10 +1276,16 @@
         <v>50</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
@@ -1072,25 +1295,37 @@
         <v>20</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
@@ -1100,10 +1335,16 @@
         <v>10</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
@@ -1113,10 +1354,16 @@
         <v>5</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
@@ -1126,25 +1373,37 @@
         <v>2</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
@@ -1154,10 +1413,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
@@ -1167,10 +1432,16 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
@@ -1180,25 +1451,37 @@
         <v>0.2</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>0.2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
@@ -1208,10 +1491,16 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
@@ -1221,10 +1510,16 @@
         <v>0.05</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
@@ -1234,25 +1529,37 @@
         <v>0.02</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>0.02</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
@@ -1262,10 +1569,16 @@
         <v>0.01</v>
       </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
@@ -1275,10 +1588,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
@@ -1288,25 +1607,37 @@
         <v>2E-3</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1">
         <v>2E-3</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
@@ -1316,10 +1647,16 @@
         <v>1E-3</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="1">
+        <v>8012</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
@@ -1333,9 +1670,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1432,8 +1767,9 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{A690A39A-7C4C-498C-8F5B-DEF5027274EF}">
       <formula1>"auto select, linear drift, quadratic drift, cubic drift"</formula1>

--- a/tests/samples/admin_fmc.xlsx
+++ b/tests/samples/admin_fmc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919162F-4752-4A38-93CD-F5618F749F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB1324-8649-4DF5-8592-0FE3FABE069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="2205" windowWidth="14400" windowHeight="7365" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Client</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Save folder</t>
   </si>
   <si>
-    <t>auto select</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>&lt;!-- Specify whether to use the recorded times for each mass measurement in the least squares analysis of each circular weighing. Allowed options: YES or NO --&gt;</t>
-  </si>
-  <si>
-    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or matrix of correlations</t>
   </si>
   <si>
     <t>96240….</t>
@@ -352,12 +346,34 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>linear drift</t>
+  </si>
+  <si>
+    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or 2x2 matrix of correlations</t>
+  </si>
+  <si>
+    <t>Correct for air density?</t>
+  </si>
+  <si>
+    <t>If true, calculate basis 8000 mass differences using measured air density. Requires densities and expansion coefficients for all masses.</t>
+  </si>
+  <si>
+    <t>Config file</t>
+  </si>
+  <si>
+    <t>Expansion coeff (ppm/degC)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +431,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -445,10 +470,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,9 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,9 +504,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -498,15 +518,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -523,8 +555,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{ADB0D6EF-9307-4C9A-BBBF-2E774534FC74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,9 +573,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,7 +613,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -686,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,237 +869,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB355D-84BE-43AB-B2BC-CDE069094A48}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="26"/>
+      <c r="B13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <f>COUNT(B15:B90)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F13" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>10000</v>
       </c>
       <c r="B15" s="1">
@@ -1074,7 +1134,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -1083,19 +1143,20 @@
       <c r="G15" s="1">
         <v>0.12871287128712872</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>10000</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -1104,9 +1165,10 @@
       <c r="G16" s="1">
         <v>0.12871287128712872</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>5000</v>
       </c>
       <c r="B17" s="1">
@@ -1114,7 +1176,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1123,9 +1185,10 @@
       <c r="G17" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>2000</v>
       </c>
       <c r="B18" s="1">
@@ -1133,7 +1196,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1142,19 +1205,20 @@
       <c r="G18" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>39</v>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>2000</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1163,24 +1227,20 @@
       <c r="G19" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="H19" s="1"/>
+      <c r="O19" s="23"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>1000</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -1189,9 +1249,10 @@
       <c r="G20" s="1">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>500</v>
       </c>
       <c r="B21" s="1">
@@ -1199,7 +1260,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -1208,9 +1269,10 @@
       <c r="G21" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>200</v>
       </c>
       <c r="B22" s="1">
@@ -1218,7 +1280,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -1227,19 +1289,20 @@
       <c r="G22" s="1">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>40</v>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>200</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -1248,9 +1311,10 @@
       <c r="G23" s="1">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>100</v>
       </c>
       <c r="B24" s="1">
@@ -1258,7 +1322,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1267,9 +1331,10 @@
       <c r="G24" s="1">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>50</v>
       </c>
       <c r="B25" s="1">
@@ -1277,7 +1342,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1286,9 +1351,10 @@
       <c r="G25" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>20</v>
       </c>
       <c r="B26" s="1">
@@ -1296,7 +1362,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1305,19 +1371,20 @@
       <c r="G26" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>41</v>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
@@ -1326,9 +1393,10 @@
       <c r="G27" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>10</v>
       </c>
       <c r="B28" s="1">
@@ -1336,7 +1404,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -1345,9 +1413,10 @@
       <c r="G28" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="15">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>5</v>
       </c>
       <c r="B29" s="1">
@@ -1355,7 +1424,7 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
@@ -1364,9 +1433,10 @@
       <c r="G29" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="15">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>2</v>
       </c>
       <c r="B30" s="1">
@@ -1374,7 +1444,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
@@ -1383,19 +1453,20 @@
       <c r="G30" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>42</v>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
@@ -1404,9 +1475,10 @@
       <c r="G31" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>1</v>
       </c>
       <c r="B32" s="1">
@@ -1414,7 +1486,7 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
@@ -1423,9 +1495,10 @@
       <c r="G32" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="15">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>0.5</v>
       </c>
       <c r="B33" s="1">
@@ -1433,7 +1506,7 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
@@ -1442,9 +1515,10 @@
       <c r="G33" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>0.2</v>
       </c>
       <c r="B34" s="1">
@@ -1452,7 +1526,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
@@ -1461,19 +1535,20 @@
       <c r="G34" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>43</v>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>0.2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
@@ -1482,9 +1557,10 @@
       <c r="G35" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>0.1</v>
       </c>
       <c r="B36" s="1">
@@ -1492,7 +1568,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
@@ -1501,9 +1577,10 @@
       <c r="G36" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="15">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>0.05</v>
       </c>
       <c r="B37" s="1">
@@ -1511,7 +1588,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
@@ -1520,9 +1597,10 @@
       <c r="G37" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="15">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>0.02</v>
       </c>
       <c r="B38" s="1">
@@ -1530,7 +1608,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
@@ -1539,19 +1617,20 @@
       <c r="G38" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>44</v>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>0.02</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
@@ -1560,9 +1639,10 @@
       <c r="G39" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="15">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>0.01</v>
       </c>
       <c r="B40" s="1">
@@ -1570,7 +1650,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
@@ -1579,9 +1659,10 @@
       <c r="G40" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="15">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B41" s="1">
@@ -1589,7 +1670,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
@@ -1598,9 +1679,10 @@
       <c r="G41" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="15">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>2E-3</v>
       </c>
       <c r="B42" s="1">
@@ -1608,7 +1690,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
@@ -1617,19 +1699,20 @@
       <c r="G42" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>45</v>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>2E-3</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
@@ -1638,9 +1721,10 @@
       <c r="G43" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="15">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>1E-3</v>
       </c>
       <c r="B44" s="1">
@@ -1648,7 +1732,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
@@ -1657,108 +1741,120 @@
       <c r="G44" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="15"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1768,13 +1864,14 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I7:N7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{A690A39A-7C4C-498C-8F5B-DEF5027274EF}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{2BEDBFF2-5B22-4EFA-A841-F273030A6B0D}">
       <formula1>"auto select, linear drift, quadratic drift, cubic drift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{7969CC89-9911-42F9-96DF-8D0F0744D590}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{2A9CFB8F-5038-43F3-8A33-55121A6ED2D7}">
       <formula1>"NO, YES"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/samples/admin_fmc.xlsx
+++ b/tests/samples/admin_fmc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB1324-8649-4DF5-8592-0FE3FABE069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FE88A-BE3F-4361-BB9E-833432BDA22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
+    <workbookView xWindow="32040" yWindow="2250" windowWidth="21600" windowHeight="11175" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Client</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Number of weights</t>
-  </si>
-  <si>
-    <t>u_mag /ug</t>
   </si>
   <si>
     <t>.</t>
@@ -363,6 +360,15 @@
   </si>
   <si>
     <t>Expansion coeff (ppm/degC)</t>
+  </si>
+  <si>
+    <t>u_mag /mg</t>
+  </si>
+  <si>
+    <t>Centre Height (mm)</t>
+  </si>
+  <si>
+    <t>u_height (mm)</t>
   </si>
 </sst>
 </file>
@@ -871,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB355D-84BE-43AB-B2BC-CDE069094A48}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +891,8 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -892,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="27"/>
     </row>
@@ -901,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>20</v>
@@ -913,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
@@ -924,9 +932,7 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,10 +940,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>25</v>
@@ -951,10 +957,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -978,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>7</v>
@@ -986,7 +992,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -1018,22 +1024,22 @@
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1047,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1056,20 +1062,20 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1093,12 +1099,15 @@
         <v>30</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>15</v>
@@ -1110,19 +1119,22 @@
         <v>16</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1134,7 +1146,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -1144,19 +1156,21 @@
         <v>0.12871287128712872</v>
       </c>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>10000</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -1166,6 +1180,8 @@
         <v>0.12871287128712872</v>
       </c>
       <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1176,7 +1192,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1186,6 +1202,8 @@
         <v>1.45</v>
       </c>
       <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1196,7 +1214,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1206,19 +1224,21 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>2000</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1228,6 +1248,8 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="O19" s="23"/>
       <c r="Q19" s="8"/>
     </row>
@@ -1240,7 +1262,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -1250,6 +1272,8 @@
         <v>0.158</v>
       </c>
       <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1260,7 +1284,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -1270,6 +1294,8 @@
         <v>0.31</v>
       </c>
       <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1280,7 +1306,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -1290,19 +1316,21 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>200</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -1312,6 +1340,8 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1322,7 +1352,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1332,6 +1362,8 @@
         <v>1.93</v>
       </c>
       <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1342,7 +1374,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1352,6 +1384,8 @@
         <v>1.45</v>
       </c>
       <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1362,7 +1396,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1372,19 +1406,21 @@
         <v>1.45</v>
       </c>
       <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
@@ -1394,6 +1430,8 @@
         <v>1.45</v>
       </c>
       <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -1404,7 +1442,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -1414,6 +1452,8 @@
         <v>1.45</v>
       </c>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -1424,7 +1464,7 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
@@ -1434,6 +1474,8 @@
         <v>1.45</v>
       </c>
       <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1444,7 +1486,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
@@ -1454,19 +1496,21 @@
         <v>1.45</v>
       </c>
       <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
@@ -1476,6 +1520,8 @@
         <v>1.45</v>
       </c>
       <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -1486,7 +1532,7 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
@@ -1496,8 +1542,10 @@
         <v>1.45</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>0.5</v>
       </c>
@@ -1506,7 +1554,7 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
@@ -1516,8 +1564,10 @@
         <v>1.45</v>
       </c>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>0.2</v>
       </c>
@@ -1526,7 +1576,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
@@ -1536,19 +1586,21 @@
         <v>1.45</v>
       </c>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>0.2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
@@ -1558,8 +1610,10 @@
         <v>1.45</v>
       </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>0.1</v>
       </c>
@@ -1568,7 +1622,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
@@ -1578,8 +1632,10 @@
         <v>1.45</v>
       </c>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>0.05</v>
       </c>
@@ -1588,7 +1644,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
@@ -1598,8 +1654,10 @@
         <v>1.45</v>
       </c>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>0.02</v>
       </c>
@@ -1608,7 +1666,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
@@ -1618,19 +1676,21 @@
         <v>1.45</v>
       </c>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>0.02</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
@@ -1640,8 +1700,10 @@
         <v>1.45</v>
       </c>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>0.01</v>
       </c>
@@ -1650,7 +1712,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
@@ -1660,8 +1722,10 @@
         <v>1.45</v>
       </c>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1670,7 +1734,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
@@ -1680,8 +1744,10 @@
         <v>1.45</v>
       </c>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>2E-3</v>
       </c>
@@ -1690,7 +1756,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
@@ -1700,19 +1766,21 @@
         <v>1.45</v>
       </c>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>2E-3</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
@@ -1722,8 +1790,10 @@
         <v>1.45</v>
       </c>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>1E-3</v>
       </c>
@@ -1732,7 +1802,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
@@ -1742,8 +1812,10 @@
         <v>1.45</v>
       </c>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -1752,8 +1824,10 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
@@ -1762,8 +1836,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
@@ -1772,8 +1848,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
@@ -1782,8 +1860,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
@@ -1792,8 +1872,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
@@ -1802,8 +1884,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -1812,8 +1896,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -1822,8 +1908,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -1832,8 +1920,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -1842,8 +1932,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
@@ -1852,6 +1944,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/tests/samples/admin_fmc.xlsx
+++ b/tests/samples/admin_fmc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919162F-4752-4A38-93CD-F5618F749F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FE88A-BE3F-4361-BB9E-833432BDA22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="2205" windowWidth="14400" windowHeight="7365" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
+    <workbookView xWindow="32040" yWindow="2250" windowWidth="21600" windowHeight="11175" xr2:uid="{F7F7C31D-9B21-4E63-BF52-B7D512313953}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Client</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Save folder</t>
   </si>
   <si>
-    <t>auto select</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>&lt;!-- Specify whether to use the recorded times for each mass measurement in the least squares analysis of each circular weighing. Allowed options: YES or NO --&gt;</t>
   </si>
   <si>
-    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or matrix of correlations</t>
-  </si>
-  <si>
     <t>96240….</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>Number of weights</t>
-  </si>
-  <si>
-    <t>u_mag /ug</t>
   </si>
   <si>
     <t>.</t>
@@ -352,12 +343,43 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>linear drift</t>
+  </si>
+  <si>
+    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or 2x2 matrix of correlations</t>
+  </si>
+  <si>
+    <t>Correct for air density?</t>
+  </si>
+  <si>
+    <t>If true, calculate basis 8000 mass differences using measured air density. Requires densities and expansion coefficients for all masses.</t>
+  </si>
+  <si>
+    <t>Config file</t>
+  </si>
+  <si>
+    <t>Expansion coeff (ppm/degC)</t>
+  </si>
+  <si>
+    <t>u_mag /mg</t>
+  </si>
+  <si>
+    <t>Centre Height (mm)</t>
+  </si>
+  <si>
+    <t>u_height (mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +437,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -445,10 +476,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,9 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,9 +510,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -498,15 +524,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -523,8 +561,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{ADB0D6EF-9307-4C9A-BBBF-2E774534FC74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,9 +579,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,7 +619,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -686,7 +725,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,7 +867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,237 +875,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB355D-84BE-43AB-B2BC-CDE069094A48}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>48</v>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="26"/>
+      <c r="B13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <f>COUNT(B15:B90)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>10000</v>
       </c>
       <c r="B15" s="1">
@@ -1074,7 +1146,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -1083,19 +1155,22 @@
       <c r="G15" s="1">
         <v>0.12871287128712872</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>10000</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -1104,9 +1179,12 @@
       <c r="G16" s="1">
         <v>0.12871287128712872</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>5000</v>
       </c>
       <c r="B17" s="1">
@@ -1114,7 +1192,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1123,9 +1201,12 @@
       <c r="G17" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>2000</v>
       </c>
       <c r="B18" s="1">
@@ -1133,7 +1214,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1142,19 +1223,22 @@
       <c r="G18" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>39</v>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>2000</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1163,24 +1247,22 @@
       <c r="G19" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="O19" s="23"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>1000</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -1189,9 +1271,12 @@
       <c r="G20" s="1">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>500</v>
       </c>
       <c r="B21" s="1">
@@ -1199,7 +1284,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -1208,9 +1293,12 @@
       <c r="G21" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>200</v>
       </c>
       <c r="B22" s="1">
@@ -1218,7 +1306,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -1227,19 +1315,22 @@
       <c r="G22" s="1">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>40</v>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>200</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -1248,9 +1339,12 @@
       <c r="G23" s="1">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>100</v>
       </c>
       <c r="B24" s="1">
@@ -1258,7 +1352,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1267,9 +1361,12 @@
       <c r="G24" s="1">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>50</v>
       </c>
       <c r="B25" s="1">
@@ -1277,7 +1374,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1286,9 +1383,12 @@
       <c r="G25" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>20</v>
       </c>
       <c r="B26" s="1">
@@ -1296,7 +1396,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1305,19 +1405,22 @@
       <c r="G26" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>41</v>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
@@ -1326,9 +1429,12 @@
       <c r="G27" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>10</v>
       </c>
       <c r="B28" s="1">
@@ -1336,7 +1442,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -1345,9 +1451,12 @@
       <c r="G28" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="15">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>5</v>
       </c>
       <c r="B29" s="1">
@@ -1355,7 +1464,7 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
@@ -1364,9 +1473,12 @@
       <c r="G29" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="15">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>2</v>
       </c>
       <c r="B30" s="1">
@@ -1374,7 +1486,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
@@ -1383,19 +1495,22 @@
       <c r="G30" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>42</v>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
@@ -1404,9 +1519,12 @@
       <c r="G31" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>1</v>
       </c>
       <c r="B32" s="1">
@@ -1414,7 +1532,7 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
@@ -1423,9 +1541,12 @@
       <c r="G32" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="15">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>0.5</v>
       </c>
       <c r="B33" s="1">
@@ -1433,7 +1554,7 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
@@ -1442,9 +1563,12 @@
       <c r="G33" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>0.2</v>
       </c>
       <c r="B34" s="1">
@@ -1452,7 +1576,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
@@ -1461,19 +1585,22 @@
       <c r="G34" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>43</v>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>0.2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
@@ -1482,9 +1609,12 @@
       <c r="G35" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>0.1</v>
       </c>
       <c r="B36" s="1">
@@ -1492,7 +1622,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
@@ -1501,9 +1631,12 @@
       <c r="G36" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="15">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>0.05</v>
       </c>
       <c r="B37" s="1">
@@ -1511,7 +1644,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
@@ -1520,9 +1653,12 @@
       <c r="G37" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="15">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>0.02</v>
       </c>
       <c r="B38" s="1">
@@ -1530,7 +1666,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
@@ -1539,19 +1675,22 @@
       <c r="G38" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>44</v>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>0.02</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
@@ -1560,9 +1699,12 @@
       <c r="G39" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="15">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>0.01</v>
       </c>
       <c r="B40" s="1">
@@ -1570,7 +1712,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
@@ -1579,9 +1721,12 @@
       <c r="G40" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="15">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B41" s="1">
@@ -1589,7 +1734,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
@@ -1598,9 +1743,12 @@
       <c r="G41" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="15">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>2E-3</v>
       </c>
       <c r="B42" s="1">
@@ -1608,7 +1756,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
@@ -1617,19 +1765,22 @@
       <c r="G42" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>45</v>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>2E-3</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
@@ -1638,9 +1789,12 @@
       <c r="G43" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="15">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>1E-3</v>
       </c>
       <c r="B44" s="1">
@@ -1648,7 +1802,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
@@ -1657,108 +1811,144 @@
       <c r="G44" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="15"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1768,13 +1958,14 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I7:N7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{A690A39A-7C4C-498C-8F5B-DEF5027274EF}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{2BEDBFF2-5B22-4EFA-A841-F273030A6B0D}">
       <formula1>"auto select, linear drift, quadratic drift, cubic drift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{7969CC89-9911-42F9-96DF-8D0F0744D590}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{2A9CFB8F-5038-43F3-8A33-55121A6ED2D7}">
       <formula1>"NO, YES"</formula1>
     </dataValidation>
   </dataValidations>
